--- a/medicine/Psychotrope/Bière_du_Boxer/Bière_du_Boxer.xlsx
+++ b/medicine/Psychotrope/Bière_du_Boxer/Bière_du_Boxer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_du_Boxer</t>
+          <t>Bière_du_Boxer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Bière du Boxer (nommée Brasserie Boxer jusqu'en 1997) était une entreprise suisse fondée le 6 avril 1960, à Lausanne, disparue le 1er janvier 2018. Son nom et son emblème venaient du chien (un boxer) du fondateur de l'établissement, A. Heusser. La production a commencé en 1962. Le site de production se situait à Romanel-sur-Lausanne, jusqu'en 2012, année de son transfert à Yverdon-les-Bains. En 2017, la brasserie est intégrée au groupe Doppelleu AG[1].
+Bière du Boxer (nommée Brasserie Boxer jusqu'en 1997) était une entreprise suisse fondée le 6 avril 1960, à Lausanne, disparue le 1er janvier 2018. Son nom et son emblème venaient du chien (un boxer) du fondateur de l'établissement, A. Heusser. La production a commencé en 1962. Le site de production se situait à Romanel-sur-Lausanne, jusqu'en 2012, année de son transfert à Yverdon-les-Bains. En 2017, la brasserie est intégrée au groupe Doppelleu AG.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_du_Boxer</t>
+          <t>Bière_du_Boxer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chien de l'initiateur et premier directeur M. A. Heusser a donné l'idée de l'appellation et de l'emblème de la Brasserie Boxer SA. Il voulait transposer dans la philosophie de son entreprise les qualités de « Loyauté, Fidélité, Défense de Liberté et Ténacité » qu'il reconnaissait à son chien[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chien de l'initiateur et premier directeur M. A. Heusser a donné l'idée de l'appellation et de l'emblème de la Brasserie Boxer SA. Il voulait transposer dans la philosophie de son entreprise les qualités de « Loyauté, Fidélité, Défense de Liberté et Ténacité » qu'il reconnaissait à son chien.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_du_Boxer</t>
+          <t>Bière_du_Boxer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malgré l'absorption de l'entreprise par le groupe Doppelleu AG, le site de production d'Yverdon-les-Bains est toujours en activité[3].
-Les produits Boxer sont toujours disponible. Actuellement produit sous licence par le groupe Doppelleu SA[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré l'absorption de l'entreprise par le groupe Doppelleu AG, le site de production d'Yverdon-les-Bains est toujours en activité.
+Les produits Boxer sont toujours disponible. Actuellement produit sous licence par le groupe Doppelleu SA.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_du_Boxer</t>
+          <t>Bière_du_Boxer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Boxer Old a remporté une médaille d’or à Bruxelles le 7 septembre 1983.</t>
         </is>
